--- a/data/msrtc/data/data/latlong/nashik.xlsx
+++ b/data/msrtc/data/data/latlong/nashik.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7517" uniqueCount="4045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7512" uniqueCount="4044">
   <si>
     <t>Aurangabad</t>
   </si>
@@ -12157,9 +12157,6 @@
   </si>
   <si>
     <t>NMUMN</t>
-  </si>
-  <si>
-    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -13190,11 +13187,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J1069"/>
+  <dimension ref="A1:J1067"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A748" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1070" sqref="A1070"/>
+      <selection pane="bottomLeft" activeCell="A1069" sqref="A1069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39662,19 +39659,19 @@
       <c r="D850" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E850" s="2" t="s">
-        <v>2099</v>
-      </c>
-      <c r="F850" s="2" t="s">
-        <v>2100</v>
+      <c r="E850" s="2">
+        <v>20.595272999999999</v>
+      </c>
+      <c r="F850" s="2">
+        <v>74.202734000000007</v>
       </c>
       <c r="G850" t="str">
         <f t="shared" si="26"/>
-        <v>20.5927983,</v>
+        <v>20.595273,</v>
       </c>
       <c r="H850" t="str">
         <f t="shared" si="27"/>
-        <v>20.5927983,74.2029649</v>
+        <v>20.595273,74.202734</v>
       </c>
       <c r="I850" t="s">
         <v>3155</v>
@@ -39696,19 +39693,19 @@
       <c r="D851" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E851" s="2" t="s">
-        <v>2099</v>
-      </c>
-      <c r="F851" s="2" t="s">
-        <v>2100</v>
+      <c r="E851" s="2">
+        <v>20.780732</v>
+      </c>
+      <c r="F851" s="2">
+        <v>74.138575000000003</v>
       </c>
       <c r="G851" t="str">
         <f t="shared" si="26"/>
-        <v>20.5927983,</v>
+        <v>20.780732,</v>
       </c>
       <c r="H851" t="str">
         <f t="shared" si="27"/>
-        <v>20.5927983,74.2029649</v>
+        <v>20.780732,74.138575</v>
       </c>
       <c r="I851" t="s">
         <v>3155</v>
@@ -46417,11 +46414,6 @@
       </c>
       <c r="I1067" t="s">
         <v>3945</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1069" t="s">
-        <v>4044</v>
       </c>
     </row>
   </sheetData>
